--- a/result/life_2019_sol.xlsx
+++ b/result/life_2019_sol.xlsx
@@ -1443,7 +1443,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>6.146714520441611E-09</v>
+        <v>6.14671452044163E-09</v>
       </c>
       <c r="C3">
         <v>1.402545409422204E-07</v>
@@ -1455,10 +1455,10 @@
         <v>2.027675877624292E-08</v>
       </c>
       <c r="F3">
-        <v>-1.293104920640693E-11</v>
+        <v>-2.341760891994355E-12</v>
       </c>
       <c r="G3">
-        <v>4.131997664140653E-09</v>
+        <v>3.941096430212838E-09</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1466,7 +1466,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1.428736875681532E-08</v>
+        <v>1.42873687568153E-08</v>
       </c>
       <c r="C4">
         <v>3.260064119775285E-07</v>
@@ -1475,13 +1475,13 @@
         <v>4.058248711415167E-09</v>
       </c>
       <c r="E4">
-        <v>4.713111839922557E-08</v>
+        <v>4.713111839922555E-08</v>
       </c>
       <c r="F4">
-        <v>-3.005681617554362E-11</v>
+        <v>-5.44316833020979E-12</v>
       </c>
       <c r="G4">
-        <v>9.60437875120892E-09</v>
+        <v>9.160649616103242E-09</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1501,10 +1501,10 @@
         <v>4.389782197878919E-09</v>
       </c>
       <c r="F5">
-        <v>-6.554000596611849E-10</v>
+        <v>-5.06975478279842E-13</v>
       </c>
       <c r="G5">
-        <v>1.100742609316185E-09</v>
+        <v>8.532209277637464E-10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1512,22 +1512,22 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>6.433569192912592E-09</v>
+        <v>6.433569192912582E-09</v>
       </c>
       <c r="C6">
         <v>1.467999352778035E-07</v>
       </c>
       <c r="D6">
-        <v>1.827420033131253E-09</v>
+        <v>1.827420033131254E-09</v>
       </c>
       <c r="E6">
-        <v>2.122303389251656E-08</v>
+        <v>2.122303389251657E-08</v>
       </c>
       <c r="F6">
-        <v>-1.353451498840701E-11</v>
+        <v>-2.451046115154084E-12</v>
       </c>
       <c r="G6">
-        <v>4.324829596168084E-09</v>
+        <v>4.125019389732896E-09</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1570,10 +1570,10 @@
         <v>7.746912450749273E-09</v>
       </c>
       <c r="F8">
-        <v>-4.940420074224834E-12</v>
+        <v>-8.946901318215888E-13</v>
       </c>
       <c r="G8">
-        <v>1.578665727793863E-09</v>
+        <v>1.505730246653709E-09</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1581,22 +1581,22 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1.994710345054073E-09</v>
+        <v>1.994710345054069E-09</v>
       </c>
       <c r="C9">
-        <v>4.551491415907757E-08</v>
+        <v>4.551491415907758E-08</v>
       </c>
       <c r="D9">
         <v>5.665865300495396E-10</v>
       </c>
       <c r="E9">
-        <v>6.580142995193414E-09</v>
+        <v>6.580142995193415E-09</v>
       </c>
       <c r="F9">
-        <v>-4.196338961024308E-12</v>
+        <v>-7.59940038393682E-13</v>
       </c>
       <c r="G9">
-        <v>1.340901461909512E-09</v>
+        <v>1.278950859081413E-09</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1604,7 +1604,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>7.60330109425473E-09</v>
+        <v>7.603301094254718E-09</v>
       </c>
       <c r="C10">
         <v>1.734906511557915E-07</v>
@@ -1616,10 +1616,10 @@
         <v>2.50817410957732E-08</v>
       </c>
       <c r="F10">
-        <v>-1.599531916668074E-11</v>
+        <v>-2.896687842981159E-12</v>
       </c>
       <c r="G10">
-        <v>5.11115690451186E-09</v>
+        <v>4.875017816764442E-09</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1627,22 +1627,22 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>9.999999999999999E-12</v>
+        <v>1.560535723155469E-08</v>
       </c>
       <c r="C11">
-        <v>3.969360882185166E-07</v>
+        <v>3.560800176211544E-07</v>
       </c>
       <c r="D11">
-        <v>4.423613643101817E-09</v>
+        <v>4.432616106861565E-09</v>
       </c>
       <c r="E11">
-        <v>5.734184380341615E-08</v>
+        <v>5.147889383003226E-08</v>
       </c>
       <c r="F11">
-        <v>-3.977324157071773E-11</v>
+        <v>-5.945292501111788E-12</v>
       </c>
       <c r="G11">
-        <v>1.060435039383001E-08</v>
+        <v>1.00057058907642E-08</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1662,10 +1662,10 @@
         <v>1.674193508394521E-07</v>
       </c>
       <c r="F12">
-        <v>-1.06767944901832E-10</v>
+        <v>-1.933524485176755E-11</v>
       </c>
       <c r="G12">
-        <v>3.411671333837999E-08</v>
+        <v>3.254049689874631E-08</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1788,22 +1788,22 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>1.506385428667829E-08</v>
+        <v>1.506385428667819E-08</v>
       </c>
       <c r="C18">
-        <v>3.4372410834638E-07</v>
+        <v>3.437241083463801E-07</v>
       </c>
       <c r="D18">
-        <v>4.27880516618543E-09</v>
+        <v>4.278805166185429E-09</v>
       </c>
       <c r="E18">
-        <v>4.969258594907064E-08</v>
+        <v>4.969258594907065E-08</v>
       </c>
       <c r="F18">
-        <v>2.730044572490367E-10</v>
+        <v>2.11518698689922E-10</v>
       </c>
       <c r="G18">
-        <v>-6.877895736459448E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1846,10 +1846,10 @@
         <v>3.020441697639047E-08</v>
       </c>
       <c r="F20">
-        <v>-1.926219108697738E-11</v>
+        <v>-3.488305193115857E-12</v>
       </c>
       <c r="G20">
-        <v>6.155055735012334E-09</v>
+        <v>5.870687778303077E-09</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1988,10 +1988,10 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5.983037035808987E-09</v>
+        <v>5.983037035809006E-09</v>
       </c>
       <c r="C3">
-        <v>1.405431847155228E-07</v>
+        <v>1.405431847155227E-07</v>
       </c>
       <c r="D3">
         <v>9.999999999999999E-12</v>
@@ -2000,13 +2000,13 @@
         <v>1.748809539656422E-09</v>
       </c>
       <c r="F3">
-        <v>2.017175985258559E-08</v>
+        <v>2.017175985258558E-08</v>
       </c>
       <c r="G3">
-        <v>-1.278980644231714E-11</v>
+        <v>-2.345484991054364E-12</v>
       </c>
       <c r="H3">
-        <v>4.135651755140698E-09</v>
+        <v>3.947363950201899E-09</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2014,25 +2014,25 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1.511665416101902E-09</v>
+        <v>1.344557872808508E-08</v>
       </c>
       <c r="C4">
-        <v>3.390804498690421E-07</v>
+        <v>3.268678592449557E-07</v>
       </c>
       <c r="D4">
-        <v>-1.274685360924516E-07</v>
+        <v>-4.608040181346259E-09</v>
       </c>
       <c r="E4">
-        <v>4.166178770063844E-09</v>
+        <v>4.065360213987492E-09</v>
       </c>
       <c r="F4">
-        <v>-8.301200322152955E-11</v>
+        <v>4.588366530329616E-08</v>
       </c>
       <c r="G4">
-        <v>2.608178631491729E-11</v>
+        <v>-5.45151453595782E-12</v>
       </c>
       <c r="H4">
-        <v>8.761014390054491E-09</v>
+        <v>9.17469596946702E-09</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2040,25 +2040,25 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>4.656357884266198E-10</v>
+        <v>1.253258605556798E-09</v>
       </c>
       <c r="C5">
-        <v>3.151548362178206E-08</v>
+        <v>3.046726106391156E-08</v>
       </c>
       <c r="D5">
-        <v>-8.639851832507992E-09</v>
+        <v>-4.295141204890363E-10</v>
       </c>
       <c r="E5">
-        <v>3.88556468643818E-10</v>
+        <v>3.789310801171699E-10</v>
       </c>
       <c r="F5">
-        <v>1.238863119703977E-09</v>
+        <v>4.276803517534892E-09</v>
       </c>
       <c r="G5">
         <v>9.999999999999999E-12</v>
       </c>
       <c r="H5">
-        <v>6.825266991961661E-10</v>
+        <v>6.657326211343971E-10</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2066,7 +2066,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>6.263353046534918E-09</v>
+        <v>6.263353046534927E-09</v>
       </c>
       <c r="C6">
         <v>1.471290006372799E-07</v>
@@ -2078,13 +2078,13 @@
         <v>1.830758090330872E-09</v>
       </c>
       <c r="F6">
-        <v>2.111696358042893E-08</v>
+        <v>2.111696358042892E-08</v>
       </c>
       <c r="G6">
-        <v>-1.338908812321938E-11</v>
+        <v>-2.455393495649221E-12</v>
       </c>
       <c r="H6">
-        <v>4.329445980227767E-09</v>
+        <v>4.132335869158999E-09</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2092,25 +2092,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>4.736393103845793E-10</v>
+        <v>1.708713711463318E-09</v>
       </c>
       <c r="C7">
-        <v>4.255378767419865E-08</v>
+        <v>4.153957252544082E-08</v>
       </c>
       <c r="D7">
-        <v>-1.319593603077572E-08</v>
+        <v>-5.856067271836709E-10</v>
       </c>
       <c r="E7">
-        <v>5.240115388671249E-10</v>
+        <v>5.16640962626031E-10</v>
       </c>
       <c r="F7">
-        <v>1.078173206803959E-09</v>
+        <v>5.83106533568196E-09</v>
       </c>
       <c r="G7">
         <v>9.999999999999999E-12</v>
       </c>
       <c r="H7">
-        <v>9.824254993319856E-10</v>
+        <v>9.731868929041331E-10</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2118,25 +2118,25 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>4.821436911662894E-09</v>
+        <v>2.208001474581739E-09</v>
       </c>
       <c r="C8">
-        <v>5.196492965321745E-08</v>
+        <v>5.367747492346997E-08</v>
       </c>
       <c r="D8">
-        <v>2.574486966066224E-08</v>
+        <v>-7.567215690752071E-10</v>
       </c>
       <c r="E8">
-        <v>6.573266386853357E-10</v>
+        <v>6.676039407669797E-10</v>
       </c>
       <c r="F8">
-        <v>9.629627548012989E-09</v>
+        <v>7.534908143500411E-09</v>
       </c>
       <c r="G8">
-        <v>-7.212820873792072E-12</v>
+        <v>-8.952349177878248E-13</v>
       </c>
       <c r="H8">
-        <v>1.600892887061207E-09</v>
+        <v>1.506647101140694E-09</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2144,25 +2144,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1.906674235988619E-09</v>
+        <v>1.878408519417313E-09</v>
       </c>
       <c r="C9">
-        <v>4.562846825240947E-08</v>
+        <v>4.566492701747422E-08</v>
       </c>
       <c r="D9">
-        <v>-3.49603441837177E-10</v>
+        <v>-6.437641714028181E-10</v>
       </c>
       <c r="E9">
-        <v>5.676181086806136E-10</v>
+        <v>5.67949317198533E-10</v>
       </c>
       <c r="F9">
-        <v>6.519160405797191E-09</v>
+        <v>6.410156792381591E-09</v>
       </c>
       <c r="G9">
-        <v>-4.118264918390651E-12</v>
+        <v>-7.616013391229993E-13</v>
       </c>
       <c r="H9">
-        <v>1.341688705021509E-09</v>
+        <v>1.281746766322617E-09</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2170,7 +2170,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>7.399165965711691E-09</v>
+        <v>7.399165965711704E-09</v>
       </c>
       <c r="C10">
         <v>1.738140793378535E-07</v>
@@ -2185,10 +2185,10 @@
         <v>2.494683616800733E-08</v>
       </c>
       <c r="G10">
-        <v>-1.581731858223614E-11</v>
+        <v>-2.900731951782923E-12</v>
       </c>
       <c r="H10">
-        <v>5.114681129464268E-09</v>
+        <v>4.881823901227979E-09</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2196,25 +2196,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-2.418223473525986E-08</v>
+        <v>1.520203300710306E-08</v>
       </c>
       <c r="C11">
-        <v>4.603139022420305E-07</v>
+        <v>3.57136629710455E-07</v>
       </c>
       <c r="D11">
         <v>9.999999999999999E-12</v>
       </c>
       <c r="E11">
-        <v>4.42112865959998E-09</v>
+        <v>4.443922660611262E-09</v>
       </c>
       <c r="F11">
-        <v>6.606561383393899E-08</v>
+        <v>5.125749532832284E-08</v>
       </c>
       <c r="G11">
-        <v>-5.003710886483183E-11</v>
+        <v>-5.960141387051796E-12</v>
       </c>
       <c r="H11">
-        <v>1.079689773450604E-08</v>
+        <v>1.003069601265533E-08</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2222,7 +2222,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>4.941347503067187E-08</v>
+        <v>4.94134750306718E-08</v>
       </c>
       <c r="C12">
         <v>1.160908982925726E-06</v>
@@ -2237,10 +2237,10 @@
         <v>1.66615809867091E-07</v>
       </c>
       <c r="G12">
-        <v>-1.056388228666049E-10</v>
+        <v>-1.937403245630122E-11</v>
       </c>
       <c r="H12">
-        <v>3.416093662777586E-08</v>
+        <v>3.260577499227317E-08</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2274,13 +2274,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>1.901523086223232E-06</v>
+        <v>1.901523086223233E-06</v>
       </c>
       <c r="C14">
-        <v>6.483964497641286E-10</v>
+        <v>6.483964497640277E-10</v>
       </c>
       <c r="D14">
-        <v>2.216365434931923E-06</v>
+        <v>2.216365434931924E-06</v>
       </c>
       <c r="E14">
         <v>7.817138362996101E-09</v>
@@ -2289,10 +2289,10 @@
         <v>1.870419754270689E-07</v>
       </c>
       <c r="G14">
-        <v>-1.709749923749835E-10</v>
+        <v>-1.057109669631132E-11</v>
       </c>
       <c r="H14">
-        <v>2.068248626370713E-08</v>
+        <v>1.779076203232419E-08</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2445,10 +2445,10 @@
         <v>3.003479342402011E-08</v>
       </c>
       <c r="G20">
-        <v>-1.904320469220657E-11</v>
+        <v>-3.492360779492749E-12</v>
       </c>
       <c r="H20">
-        <v>6.157860186697684E-09</v>
+        <v>5.877513179097996E-09</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2608,31 +2608,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1.942063690923642E-09</v>
+        <v>3.915121934757502E-09</v>
       </c>
       <c r="C3">
-        <v>1.476694048960193E-07</v>
+        <v>1.441899344134188E-07</v>
       </c>
       <c r="D3">
-        <v>1.900046819175498E-09</v>
+        <v>1.82773149919624E-09</v>
       </c>
       <c r="E3">
-        <v>1.942103107313267E-08</v>
+        <v>1.997157089120717E-08</v>
       </c>
       <c r="F3">
-        <v>4.313853709781548E-09</v>
+        <v>4.257687467913823E-09</v>
       </c>
       <c r="G3">
-        <v>7.79136377226411E-09</v>
+        <v>7.609026193677007E-09</v>
       </c>
       <c r="H3">
-        <v>0.01027534479819681</v>
+        <v>0.005453576098644245</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.8703272566848334</v>
+        <v>0.8545543379042466</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2672,31 +2672,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-3.790107313904878E-08</v>
+        <v>8.421203894038688E-10</v>
       </c>
       <c r="C5">
-        <v>8.257653580862422E-08</v>
+        <v>3.10144320488056E-08</v>
       </c>
       <c r="D5">
-        <v>-2.502683184693306E-10</v>
+        <v>3.93134615179327E-10</v>
       </c>
       <c r="E5">
-        <v>5.727348980661509E-07</v>
+        <v>4.295770928933334E-09</v>
       </c>
       <c r="F5">
-        <v>9.999999999999999E-12</v>
+        <v>5.700214698677591E-10</v>
       </c>
       <c r="G5">
-        <v>4.643220601572291E-08</v>
+        <v>1.368445072840994E-09</v>
       </c>
       <c r="H5">
-        <v>0.1353170848859702</v>
+        <v>0.001173033089099</v>
       </c>
       <c r="I5">
-        <v>3.894803009569819</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>10.25870346483104</v>
+        <v>0.115045910086478</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2704,31 +2704,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2.042275858061754E-09</v>
+        <v>4.108060299602394E-09</v>
       </c>
       <c r="C6">
-        <v>1.552892739836208E-07</v>
+        <v>1.512956569600744E-07</v>
       </c>
       <c r="D6">
-        <v>1.998090879369455E-09</v>
+        <v>1.917802647202102E-09</v>
       </c>
       <c r="E6">
-        <v>2.042317308371177E-08</v>
+        <v>2.095577580217755E-08</v>
       </c>
       <c r="F6">
-        <v>1.717654003183953E-08</v>
+        <v>1.008561509377453E-08</v>
       </c>
       <c r="G6">
-        <v>1.820727485520708E-08</v>
+        <v>1.243484047429275E-08</v>
       </c>
       <c r="H6">
-        <v>0.0108055614821968</v>
+        <v>0.005722329939708398</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>3.467035788557422</v>
+        <v>2.030858567655189</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2736,31 +2736,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>5.263658773508046E-08</v>
+        <v>1.1405724827456E-09</v>
       </c>
       <c r="C7">
-        <v>-2.812451383930798E-10</v>
+        <v>4.200611724557761E-08</v>
       </c>
       <c r="D7">
-        <v>3.212269432558949E-09</v>
+        <v>5.324636837844985E-10</v>
       </c>
       <c r="E7">
-        <v>3.017526420649129E-10</v>
+        <v>5.818215758361006E-09</v>
       </c>
       <c r="F7">
-        <v>-3.837684183992086E-09</v>
+        <v>2.80019624232677E-09</v>
       </c>
       <c r="G7">
-        <v>3.771301835536207E-09</v>
+        <v>3.452441248878433E-09</v>
       </c>
       <c r="H7">
-        <v>0.3833247255609602</v>
+        <v>0.001588762467357768</v>
       </c>
       <c r="I7">
-        <v>0.3837673091675387</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5638528217562739</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2768,31 +2768,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>2.016493905049636E-09</v>
+        <v>2.348405865803456E-09</v>
       </c>
       <c r="C8">
-        <v>5.380296697801486E-08</v>
+        <v>5.358547001961897E-08</v>
       </c>
       <c r="D8">
-        <v>8.056901456415748E-10</v>
+        <v>6.670518022592893E-10</v>
       </c>
       <c r="E8">
-        <v>3.283459081049182E-09</v>
+        <v>7.746912450749273E-09</v>
       </c>
       <c r="F8">
-        <v>-8.708512325918994E-11</v>
+        <v>2.864299987986627E-10</v>
       </c>
       <c r="G8">
-        <v>1.700624776839436E-09</v>
+        <v>1.804672758592532E-09</v>
       </c>
       <c r="H8">
-        <v>0.01755034748578597</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0579431705230824</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2800,31 +2800,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1.168332878040934E-08</v>
+        <v>1.2615235458405E-09</v>
       </c>
       <c r="C9">
-        <v>3.301797064641564E-08</v>
+        <v>4.646062113217558E-08</v>
       </c>
       <c r="D9">
-        <v>1.399539428559913E-09</v>
+        <v>5.889283538061692E-10</v>
       </c>
       <c r="E9">
-        <v>2.379473185319119E-09</v>
+        <v>6.43520362586363E-09</v>
       </c>
       <c r="F9">
-        <v>-1.156590944770686E-09</v>
+        <v>8.539105763879347E-10</v>
       </c>
       <c r="G9">
-        <v>2.095919270499385E-09</v>
+        <v>2.049974926819991E-09</v>
       </c>
       <c r="H9">
-        <v>0.1209545977477712</v>
+        <v>0.001757241467445078</v>
       </c>
       <c r="I9">
-        <v>0.1102300056666975</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1723424898691225</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2832,31 +2832,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>2.390273303438426E-09</v>
+        <v>7.60330109425473E-09</v>
       </c>
       <c r="C10">
-        <v>1.81750082609145E-07</v>
+        <v>1.734906511557915E-07</v>
       </c>
       <c r="D10">
-        <v>2.338559341994743E-09</v>
+        <v>2.159675962275553E-09</v>
       </c>
       <c r="E10">
-        <v>2.390321816751486E-08</v>
+        <v>2.50817410957732E-08</v>
       </c>
       <c r="F10">
-        <v>-7.709025226098388E-11</v>
+        <v>9.273582288412134E-10</v>
       </c>
       <c r="G10">
-        <v>5.411363007510878E-09</v>
+        <v>5.842887102805138E-09</v>
       </c>
       <c r="H10">
-        <v>0.01264679550394845</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1875993304578473</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2876,10 +2876,10 @@
         <v>6.614834360176499E-08</v>
       </c>
       <c r="F11">
-        <v>1.17774546418921E-08</v>
+        <v>1.177745464189207E-08</v>
       </c>
       <c r="G11">
-        <v>1.994990683908941E-08</v>
+        <v>1.994990683908939E-08</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>2.352098727602898</v>
+        <v>2.352098727602893</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2908,10 +2908,10 @@
         <v>1.674193508394521E-07</v>
       </c>
       <c r="F12">
-        <v>-1.067679449018324E-10</v>
+        <v>-1.933524485176755E-11</v>
       </c>
       <c r="G12">
-        <v>3.411671333837999E-08</v>
+        <v>3.254049689874631E-08</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2928,31 +2928,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>9.999999999999999E-12</v>
+        <v>1.555679713069374E-08</v>
       </c>
       <c r="C13">
-        <v>3.833544112430935E-07</v>
+        <v>3.549719826486973E-07</v>
       </c>
       <c r="D13">
-        <v>4.272264219459797E-09</v>
+        <v>4.418822876624465E-09</v>
       </c>
       <c r="E13">
-        <v>3.044333590734616E-07</v>
+        <v>5.131870395167809E-08</v>
       </c>
       <c r="F13">
-        <v>1.547996653911267E-06</v>
+        <v>2.609434083686607E-08</v>
       </c>
       <c r="G13">
-        <v>1.246667694423339E-06</v>
+        <v>3.098116610449279E-08</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.548904057198124</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>314.8829085598454</v>
+        <v>5.242646935398713</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3004,7 +3004,7 @@
         <v>2.003959009694513E-07</v>
       </c>
       <c r="F15">
-        <v>2.370142233764941E-08</v>
+        <v>8.648551606428867E-10</v>
       </c>
       <c r="G15">
         <v>9.999999999999999E-12</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.580252788563198</v>
+        <v>0.00239561875</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3030,16 +3030,16 @@
         <v>1.081450196129569E-06</v>
       </c>
       <c r="D16">
-        <v>1.346229308276619E-08</v>
+        <v>1.346229308276618E-08</v>
       </c>
       <c r="E16">
         <v>1.563464869524154E-07</v>
       </c>
       <c r="F16">
-        <v>1.242335079789664E-07</v>
+        <v>4.327303422635791E-08</v>
       </c>
       <c r="G16">
-        <v>1.298270557159865E-07</v>
+        <v>4.385236694250994E-08</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>25.00331099347276</v>
+        <v>8.619765441386386</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3088,7 +3088,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>1.506385428667814E-08</v>
+        <v>1.506385428667815E-08</v>
       </c>
       <c r="C18">
         <v>3.437241083463801E-07</v>
@@ -3097,13 +3097,13 @@
         <v>4.278805166185429E-09</v>
       </c>
       <c r="E18">
-        <v>4.969258594907066E-08</v>
+        <v>4.969258594907065E-08</v>
       </c>
       <c r="F18">
-        <v>2.659233356166539E-07</v>
+        <v>1.375374026075113E-08</v>
       </c>
       <c r="G18">
-        <v>2.214143992370322E-07</v>
+        <v>1.393787321664303E-08</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>53.79890011286871</v>
+        <v>2.739674189912014</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3152,31 +3152,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>2.861352542955993E-09</v>
+        <v>9.156193574082319E-09</v>
       </c>
       <c r="C20">
-        <v>2.175697064883909E-07</v>
+        <v>2.089242508726042E-07</v>
       </c>
       <c r="D20">
-        <v>2.79944670362356E-09</v>
+        <v>2.600766551627114E-09</v>
       </c>
       <c r="E20">
-        <v>2.861410617357545E-08</v>
+        <v>3.020441697639047E-08</v>
       </c>
       <c r="F20">
-        <v>-9.228333388770795E-11</v>
+        <v>1.116761173195567E-09</v>
       </c>
       <c r="G20">
-        <v>6.477843885101147E-09</v>
+        <v>7.036233956441261E-09</v>
       </c>
       <c r="H20">
-        <v>0.01513924806147136</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2259144760455103</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3196,7 +3196,7 @@
         <v>7.624307904058759E-08</v>
       </c>
       <c r="F21">
-        <v>2.306461628238915E-10</v>
+        <v>2.306461628238914E-10</v>
       </c>
       <c r="G21">
         <v>1.050222634692812E-08</v>
@@ -3216,22 +3216,22 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>9.999999999999999E-12</v>
+        <v>-3.402284971258586E-08</v>
       </c>
       <c r="C22">
-        <v>5.601421667781411E-07</v>
+        <v>6.65928531633045E-07</v>
       </c>
       <c r="D22">
-        <v>6.242324688105455E-09</v>
+        <v>6.407981448989697E-09</v>
       </c>
       <c r="E22">
-        <v>8.091877128354383E-08</v>
+        <v>9.611532269674786E-08</v>
       </c>
       <c r="F22">
-        <v>9.593924889759835E-07</v>
+        <v>3.890192688625648E-08</v>
       </c>
       <c r="G22">
-        <v>4.055456880723603E-07</v>
+        <v>4.624964865550079E-08</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>194.0509420313666</v>
+        <v>7.816450672577074</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3248,10 +3248,10 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>3.84916737863922E-08</v>
+        <v>3.849167378639215E-08</v>
       </c>
       <c r="C23">
-        <v>8.782955543248891E-07</v>
+        <v>8.782955543248892E-07</v>
       </c>
       <c r="D23">
         <v>1.093334876439897E-08</v>
@@ -3260,7 +3260,7 @@
         <v>1.269761889322997E-07</v>
       </c>
       <c r="F23">
-        <v>1.502083771786318E-08</v>
+        <v>5.523408961562154E-10</v>
       </c>
       <c r="G23">
         <v>9.999999999999999E-12</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>2.902775145947962</v>
+        <v>0.00239561875</v>
       </c>
     </row>
   </sheetData>
@@ -3360,34 +3360,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>2.046233779763431E-09</v>
+        <v>3.42429445761861E-09</v>
       </c>
       <c r="C3">
-        <v>1.474857018804491E-07</v>
+        <v>1.450555042586533E-07</v>
       </c>
       <c r="D3">
-        <v>2.806437210945017E-09</v>
+        <v>1.479702847946618E-08</v>
       </c>
       <c r="E3">
-        <v>1.897864349001811E-09</v>
+        <v>1.868992564783827E-09</v>
       </c>
       <c r="F3">
-        <v>1.975915402967598E-08</v>
+        <v>2.051868631297178E-08</v>
       </c>
       <c r="G3">
-        <v>4.33908629554157E-09</v>
+        <v>4.361866763249295E-09</v>
       </c>
       <c r="H3">
-        <v>7.814329584325515E-09</v>
+        <v>7.78932339357908E-09</v>
       </c>
       <c r="I3">
-        <v>0.01022978158079135</v>
+        <v>0.009627028151640488</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8753812523658254</v>
+        <v>0.8795219711193157</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3430,34 +3430,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-3.733812269263391E-08</v>
+        <v>7.018362541930603E-10</v>
       </c>
       <c r="C5">
-        <v>8.182732267759097E-08</v>
+        <v>3.12011318140246E-08</v>
       </c>
       <c r="D5">
-        <v>-3.089668418919037E-07</v>
+        <v>6.738299189274274E-10</v>
       </c>
       <c r="E5">
-        <v>6.059340578088348E-10</v>
+        <v>3.979809917866281E-10</v>
       </c>
       <c r="F5">
-        <v>4.876180964981632E-07</v>
+        <v>4.281885246271333E-09</v>
       </c>
       <c r="G5">
-        <v>9.999999999999999E-12</v>
+        <v>7.108285761521675E-10</v>
       </c>
       <c r="H5">
-        <v>4.255625797907926E-08</v>
+        <v>1.487507481717986E-09</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001573282752138601</v>
       </c>
       <c r="J5">
-        <v>3.654969601928087</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>9.194856997008195</v>
+        <v>0.1434384095569367</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3465,34 +3465,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2.151569989254441E-09</v>
+        <v>3.545434107103331E-09</v>
       </c>
       <c r="C6">
-        <v>1.550779843184807E-07</v>
+        <v>1.523833375017003E-07</v>
       </c>
       <c r="D6">
-        <v>2.950907242130573E-09</v>
+        <v>1.179814926552049E-08</v>
       </c>
       <c r="E6">
-        <v>1.995562783378675E-09</v>
+        <v>1.957383738387074E-09</v>
       </c>
       <c r="F6">
-        <v>2.077631756632494E-08</v>
+        <v>2.1358673050873E-08</v>
       </c>
       <c r="G6">
-        <v>1.732677675275109E-08</v>
+        <v>9.567390388595437E-09</v>
       </c>
       <c r="H6">
-        <v>1.832888902312404E-08</v>
+        <v>1.211536292419823E-08</v>
       </c>
       <c r="I6">
-        <v>0.01075639121176214</v>
+        <v>0.009370542058870094</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.497323806719763</v>
+        <v>1.929661160046543</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3500,34 +3500,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>5.229409761226719E-08</v>
+        <v>3.010761410079192E-09</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>4.047036042033356E-08</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2.100950643527229E-08</v>
       </c>
       <c r="E7">
-        <v>3.226796764873689E-09</v>
+        <v>5.3141505265351E-10</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>7.117238425001649E-09</v>
       </c>
       <c r="G7">
-        <v>-3.851057739621464E-09</v>
+        <v>1.347686090550358E-09</v>
       </c>
       <c r="H7">
-        <v>3.784298127033603E-09</v>
+        <v>2.328373172591928E-09</v>
       </c>
       <c r="I7">
-        <v>0.3849200353516906</v>
+        <v>0.002881032038698079</v>
       </c>
       <c r="J7">
-        <v>0.3849200353516907</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2718912660269098</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3535,34 +3535,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>6.798130591802031E-09</v>
+        <v>2.242084355202624E-09</v>
       </c>
       <c r="C8">
-        <v>5.066963176116733E-08</v>
+        <v>5.365514092004454E-08</v>
       </c>
       <c r="D8">
-        <v>4.054317002525429E-08</v>
+        <v>-4.111034767623551E-10</v>
       </c>
       <c r="E8">
-        <v>7.870800081484275E-10</v>
+        <v>6.674699102663661E-10</v>
       </c>
       <c r="F8">
-        <v>7.86599363316765E-09</v>
+        <v>7.665970032534505E-09</v>
       </c>
       <c r="G8">
-        <v>9.999999999999999E-12</v>
+        <v>2.7945685782465E-10</v>
       </c>
       <c r="H8">
-        <v>1.844942337631065E-09</v>
+        <v>1.798232530225496E-09</v>
       </c>
       <c r="I8">
-        <v>0.01757508697555788</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.02042515064873408</v>
+        <v>0.05653703358416108</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3570,34 +3570,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1.205777814716637E-08</v>
+        <v>1.101653945943313E-09</v>
       </c>
       <c r="C9">
-        <v>3.253498407656183E-08</v>
+        <v>4.666683023955631E-08</v>
       </c>
       <c r="D9">
-        <v>3.770694216009716E-09</v>
+        <v>4.760456515747406E-09</v>
       </c>
       <c r="E9">
-        <v>1.402722790141613E-09</v>
+        <v>6.012867914690836E-10</v>
       </c>
       <c r="F9">
-        <v>3.307736814357794E-09</v>
+        <v>6.601211420324032E-09</v>
       </c>
       <c r="G9">
-        <v>-1.168789066427995E-09</v>
+        <v>1.345096030523668E-09</v>
       </c>
       <c r="H9">
-        <v>2.1150281206541E-09</v>
+        <v>2.460821318676541E-09</v>
       </c>
       <c r="I9">
-        <v>0.1219221310312957</v>
+        <v>0.003097179183963388</v>
       </c>
       <c r="J9">
-        <v>0.1114753318901495</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2713851268115585</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3605,34 +3605,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>2.518796595224128E-09</v>
+        <v>7.27160455174857E-09</v>
       </c>
       <c r="C10">
-        <v>1.815464525190593E-07</v>
+        <v>1.740161854452826E-07</v>
       </c>
       <c r="D10">
-        <v>3.454563482211607E-09</v>
+        <v>-1.333304835711529E-09</v>
       </c>
       <c r="E10">
-        <v>2.336162323063445E-09</v>
+        <v>2.16476120819704E-09</v>
       </c>
       <c r="F10">
-        <v>2.432238700516959E-08</v>
+        <v>2.486253581529864E-08</v>
       </c>
       <c r="G10">
-        <v>-7.732346869443947E-11</v>
+        <v>9.063440171162038E-10</v>
       </c>
       <c r="H10">
-        <v>5.416036771736186E-09</v>
+        <v>5.832089148410518E-09</v>
       </c>
       <c r="I10">
-        <v>0.01259227526708245</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.1833628365436585</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3675,7 +3675,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>4.941347503067187E-08</v>
+        <v>4.94134750306718E-08</v>
       </c>
       <c r="C12">
         <v>1.160908982925726E-06</v>
@@ -3690,10 +3690,10 @@
         <v>1.66615809867091E-07</v>
       </c>
       <c r="G12">
-        <v>-1.056388228666052E-10</v>
+        <v>-1.937403245630122E-11</v>
       </c>
       <c r="H12">
-        <v>3.416093662777586E-08</v>
+        <v>3.260577499227317E-08</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3710,34 +3710,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>9.999999999999999E-12</v>
+        <v>1.488448294753251E-08</v>
       </c>
       <c r="C13">
-        <v>3.833544112430935E-07</v>
+        <v>3.561993678867088E-07</v>
       </c>
       <c r="D13">
-        <v>1.395114832745156E-07</v>
+        <v>-2.729184865565671E-09</v>
       </c>
       <c r="E13">
-        <v>3.858626299567559E-09</v>
+        <v>4.4311198525146E-09</v>
       </c>
       <c r="F13">
-        <v>5.572652271827726E-07</v>
+        <v>5.089193007425572E-08</v>
       </c>
       <c r="G13">
-        <v>2.818957102058721E-06</v>
+        <v>2.613910047403389E-08</v>
       </c>
       <c r="H13">
-        <v>2.262200923572285E-06</v>
+        <v>3.1032671121485E-08</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>3.050362090890355</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>573.6729883092524</v>
+        <v>5.251623492066098</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3745,13 +3745,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>1.901523086223232E-06</v>
+        <v>1.901523086223233E-06</v>
       </c>
       <c r="C14">
-        <v>6.483964497641207E-10</v>
+        <v>6.483964497640277E-10</v>
       </c>
       <c r="D14">
-        <v>2.216365434931923E-06</v>
+        <v>2.216365434931924E-06</v>
       </c>
       <c r="E14">
         <v>7.817138362996101E-09</v>
@@ -3760,10 +3760,10 @@
         <v>1.870419754270689E-07</v>
       </c>
       <c r="G14">
-        <v>-1.709749923749835E-10</v>
+        <v>-1.057109669631132E-11</v>
       </c>
       <c r="H14">
-        <v>2.068248626370713E-08</v>
+        <v>1.779076203232419E-08</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3780,7 +3780,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>5.908877692810855E-08</v>
+        <v>5.908877692810894E-08</v>
       </c>
       <c r="C15">
         <v>1.388222995846129E-06</v>
@@ -3795,7 +3795,7 @@
         <v>1.992401733409593E-07</v>
       </c>
       <c r="G15">
-        <v>2.353093941636833E-08</v>
+        <v>8.653781082845409E-10</v>
       </c>
       <c r="H15">
         <v>9.999999999999999E-12</v>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4.545972660684946</v>
+        <v>0.00239561875</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3830,10 +3830,10 @@
         <v>1.555506066454029E-07</v>
       </c>
       <c r="G16">
-        <v>1.239664769281417E-07</v>
+        <v>4.332899064389532E-08</v>
       </c>
       <c r="H16">
-        <v>1.296471755059944E-07</v>
+        <v>4.390907249594548E-08</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>24.94928663148256</v>
+        <v>8.630911671428642</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3885,25 +3885,25 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>5.768990175872813E-07</v>
+        <v>3.133969175518652E-08</v>
       </c>
       <c r="C18">
-        <v>1.383921684211427E-07</v>
+        <v>3.377758347251923E-07</v>
       </c>
       <c r="D18">
-        <v>8.834389409084866E-07</v>
+        <v>1.67343531446175E-07</v>
       </c>
       <c r="E18">
-        <v>4.067060359218847E-09</v>
+        <v>4.27267111782373E-09</v>
       </c>
       <c r="F18">
-        <v>9.43796738147103E-08</v>
+        <v>6.259328175423409E-08</v>
       </c>
       <c r="G18">
-        <v>4.900481690549578E-07</v>
+        <v>1.398166337584125E-08</v>
       </c>
       <c r="H18">
-        <v>4.002123851343099E-07</v>
+        <v>1.416884773128716E-08</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>99.17098831843259</v>
+        <v>2.785075299999935</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -3920,25 +3920,25 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>9.999999999999999E-12</v>
+        <v>2.270733703436515E-08</v>
       </c>
       <c r="C19">
-        <v>6.088018793999158E-07</v>
+        <v>5.520252267190312E-07</v>
       </c>
       <c r="D19">
-        <v>-1.424303739315196E-07</v>
+        <v>-7.782210319861856E-09</v>
       </c>
       <c r="E19">
-        <v>7.173919596484643E-09</v>
+        <v>6.865714478640461E-09</v>
       </c>
       <c r="F19">
-        <v>3.344185025030127E-08</v>
+        <v>7.748984803717042E-08</v>
       </c>
       <c r="G19">
-        <v>1.294705561475255E-08</v>
+        <v>1.620037030475982E-08</v>
       </c>
       <c r="H19">
-        <v>2.588575089504892E-08</v>
+        <v>2.880121442279763E-08</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.573621750501539</v>
+        <v>3.231262554320115</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -3955,34 +3955,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>3.015647326437884E-09</v>
+        <v>8.75342141167929E-09</v>
       </c>
       <c r="C20">
-        <v>2.173577950682702E-07</v>
+        <v>2.094774258989649E-07</v>
       </c>
       <c r="D20">
-        <v>4.136000957319991E-09</v>
+        <v>-1.605007397494733E-09</v>
       </c>
       <c r="E20">
-        <v>2.796987131485424E-09</v>
+        <v>2.60589901116777E-09</v>
       </c>
       <c r="F20">
-        <v>2.912015264900757E-08</v>
+        <v>2.992905510819408E-08</v>
       </c>
       <c r="G20">
-        <v>-9.257607862477681E-11</v>
+        <v>1.091039957406934E-09</v>
       </c>
       <c r="H20">
-        <v>6.484388950479006E-09</v>
+        <v>7.020559720906604E-09</v>
       </c>
       <c r="I20">
-        <v>0.01507619206526994</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.220728749345578</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -4005,7 +4005,7 @@
         <v>7.548255732093874E-08</v>
       </c>
       <c r="G21">
-        <v>2.306188929502006E-10</v>
+        <v>2.306188929502007E-10</v>
       </c>
       <c r="H21">
         <v>1.051766388451657E-08</v>
@@ -4031,19 +4031,19 @@
         <v>5.601421667781411E-07</v>
       </c>
       <c r="D22">
-        <v>2.038422318794635E-07</v>
+        <v>-4.291786179200305E-09</v>
       </c>
       <c r="E22">
-        <v>5.637802705392967E-09</v>
+        <v>6.269811460501562E-09</v>
       </c>
       <c r="F22">
-        <v>9.758618904524143E-08</v>
+        <v>8.00302261973187E-08</v>
       </c>
       <c r="G22">
-        <v>1.277398531420102E-06</v>
+        <v>3.737778731545157E-08</v>
       </c>
       <c r="H22">
-        <v>9.999999999999999E-12</v>
+        <v>4.439845857907813E-08</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>258.1874678598431</v>
+        <v>7.509823075906465</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4060,22 +4060,22 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>3.683496183811481E-08</v>
+        <v>3.683496183811471E-08</v>
       </c>
       <c r="C23">
-        <v>8.814945180909076E-07</v>
+        <v>8.814945180909078E-07</v>
       </c>
       <c r="D23">
-        <v>-6.753974641016171E-09</v>
+        <v>-6.753974641016172E-09</v>
       </c>
       <c r="E23">
-        <v>1.096579110223951E-08</v>
+        <v>1.096579110223952E-08</v>
       </c>
       <c r="F23">
         <v>1.259433941213239E-07</v>
       </c>
       <c r="G23">
-        <v>1.486399595093521E-08</v>
+        <v>5.535308139990965E-10</v>
       </c>
       <c r="H23">
         <v>9.999999999999999E-12</v>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.871095845132807</v>
+        <v>0.00239561875</v>
       </c>
     </row>
   </sheetData>
